--- a/CC3.xlsx
+++ b/CC3.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="71">
   <si>
     <t xml:space="preserve">1 - Park Tavern   </t>
   </si>
   <si>
-    <t>06/19/2017 --   7:02 PM</t>
+    <t/>
+  </si>
+  <si>
+    <t>07/05/2017 --  11:07 AM</t>
   </si>
   <si>
     <t>5.3.15</t>
@@ -26,15 +29,12 @@
     <t>CC Sales &amp; Tips</t>
   </si>
   <si>
-    <t>06/05/2017 -- 06/18/2017</t>
+    <t>06/19/2017 -- 07/02/2017</t>
   </si>
   <si>
     <t>SUMMARY</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">CC </t>
   </si>
   <si>
@@ -56,6 +56,12 @@
     <t xml:space="preserve">Tippable Sales </t>
   </si>
   <si>
+    <t>Gilmore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alyssa</t>
+  </si>
+  <si>
     <t>Terry</t>
   </si>
   <si>
@@ -110,18 +116,24 @@
     <t xml:space="preserve"> Emily</t>
   </si>
   <si>
-    <t>ISBAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Front Bar </t>
-  </si>
-  <si>
     <t>Repine</t>
   </si>
   <si>
     <t xml:space="preserve"> Heather</t>
   </si>
   <si>
+    <t>Front Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISBAR</t>
+  </si>
+  <si>
+    <t>Patio 1</t>
+  </si>
+  <si>
+    <t>Patio 2</t>
+  </si>
+  <si>
     <t>Mills</t>
   </si>
   <si>
@@ -164,12 +176,6 @@
     <t xml:space="preserve"> Natalie</t>
   </si>
   <si>
-    <t>Vann</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nicola</t>
-  </si>
-  <si>
     <t>Aanstoos</t>
   </si>
   <si>
@@ -182,24 +188,12 @@
     <t xml:space="preserve"> Ousseynou</t>
   </si>
   <si>
-    <t xml:space="preserve"> Patio 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patio 1</t>
-  </si>
-  <si>
     <t>Wood</t>
   </si>
   <si>
     <t xml:space="preserve"> Patrick</t>
   </si>
   <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ramiro</t>
-  </si>
-  <si>
     <t>Kifle-ab</t>
   </si>
   <si>
@@ -212,22 +206,16 @@
     <t xml:space="preserve"> Sarah</t>
   </si>
   <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Server</t>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tracy</t>
   </si>
   <si>
     <t>Bone</t>
   </si>
   <si>
     <t xml:space="preserve"> Troy</t>
-  </si>
-  <si>
-    <t>sushi bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sushi bar</t>
   </si>
   <si>
     <t>------------</t>
@@ -281,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H259"/>
+  <dimension ref="A2:H485"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -296,10 +284,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -312,11 +297,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -324,12 +306,12 @@
         <v>0.0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0.0</v>
+      <c r="A7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -337,12 +319,12 @@
         <v>0.0</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0.0</v>
+      <c r="A9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -350,39 +332,12 @@
         <v>0.0</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
+      <c r="A11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -391,18 +346,21 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0.0</v>
+      <c r="A13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>0.0</v>
       </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0.0</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -411,46 +369,61 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>8019.0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>937.8300170898438</v>
-      </c>
-      <c r="F17" t="n">
-        <v>828.3200073242188</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4511.7998046875</v>
+      <c r="A17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.0</v>
       </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0.0</v>
+      <c r="A19" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.0</v>
       </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0.0</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -459,8 +432,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0.0</v>
+      <c r="A23" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -469,26 +442,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2681.0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1104.6400146484375</v>
-      </c>
-      <c r="F25" t="n">
-        <v>530.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6121.43994140625</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -497,8 +452,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0.0</v>
+      <c r="A27" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -507,8 +462,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0.0</v>
+      <c r="A29" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -517,36 +472,36 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0.0</v>
+      <c r="A31" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.0</v>
       </c>
+      <c r="B32" t="n">
+        <v>6621.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>70349.421875</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B33" t="n">
-        <v>6279.0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>77109.7890625</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -555,8 +510,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0.0</v>
+      <c r="A35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -565,8 +520,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0.0</v>
+      <c r="A37" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -575,8 +530,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0.0</v>
+      <c r="A39" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -585,26 +540,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>690.0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1032.0400390625</v>
-      </c>
-      <c r="F41" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5930.77001953125</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -613,8 +550,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>0.0</v>
+      <c r="A43" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -623,8 +560,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>0.0</v>
+      <c r="A45" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -633,36 +570,36 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>0.0</v>
+      <c r="A47" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>0.0</v>
       </c>
+      <c r="B48" t="n">
+        <v>8019.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1435.3299560546875</v>
+      </c>
+      <c r="F48" t="n">
+        <v>850.5900268554688</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6494.8701171875</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>5219.0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1113.719970703125</v>
-      </c>
-      <c r="F49" t="n">
-        <v>970.0599975585938</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6231.240234375</v>
+      <c r="A49" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -671,8 +608,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>0.0</v>
+      <c r="A51" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -681,8 +618,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>0.0</v>
+      <c r="A53" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -691,8 +628,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>0.0</v>
+      <c r="A55" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -701,26 +638,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>9051.0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1111.93994140625</v>
-      </c>
-      <c r="F57" t="n">
-        <v>20.010000228881836</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5969.2099609375</v>
+      <c r="A57" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -729,8 +648,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>0.0</v>
+      <c r="A59" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -739,8 +658,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>0.0</v>
+      <c r="A61" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -749,36 +668,36 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>0.0</v>
+      <c r="A63" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>0.0</v>
       </c>
+      <c r="B64" t="n">
+        <v>2681.0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="n">
+        <v>908.989990234375</v>
+      </c>
+      <c r="F64" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4271.4599609375</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>187.0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.0</v>
+      <c r="A65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -787,8 +706,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>0.0</v>
+      <c r="A67" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -797,8 +716,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>0.0</v>
+      <c r="A69" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -807,8 +726,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>0.0</v>
+      <c r="A71" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -817,26 +736,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>8706.0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1264.1199951171875</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1006.0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6420.18994140625</v>
+      <c r="A73" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -845,8 +746,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>0.0</v>
+      <c r="A75" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -855,8 +756,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>0.0</v>
+      <c r="A77" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -865,36 +766,36 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>0.0</v>
+      <c r="A79" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>0.0</v>
       </c>
+      <c r="B80" t="n">
+        <v>6279.0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>13072.490234375</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2598.0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81" t="n">
-        <v>286.8900146484375</v>
-      </c>
-      <c r="F81" t="n">
-        <v>62.869998931884766</v>
-      </c>
-      <c r="G81" t="n">
-        <v>363.260009765625</v>
+      <c r="A81" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -903,8 +804,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>0.0</v>
+      <c r="A83" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -913,8 +814,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>0.0</v>
+      <c r="A85" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -923,8 +824,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>0.0</v>
+      <c r="A87" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -933,26 +834,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" t="s">
-        <v>33</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2112.64990234375</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>21768.779296875</v>
+      <c r="A89" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -961,8 +844,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>0.0</v>
+      <c r="A91" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -971,8 +854,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>0.0</v>
+      <c r="A93" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -981,36 +864,36 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>0.0</v>
+      <c r="A95" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>0.0</v>
       </c>
+      <c r="B96" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" t="n">
+        <v>578.77001953125</v>
+      </c>
+      <c r="F96" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3131.169921875</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5934.0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" t="n">
-        <v>709.3400268554688</v>
-      </c>
-      <c r="F97" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>4005.889892578125</v>
+      <c r="A97" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1019,8 +902,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>0.0</v>
+      <c r="A99" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1029,8 +912,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>0.0</v>
+      <c r="A101" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1039,8 +922,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>0.0</v>
+      <c r="A103" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1049,26 +932,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>3117.0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" t="n">
-        <v>88.91999816894531</v>
-      </c>
-      <c r="F105" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>484.67999267578125</v>
+      <c r="A105" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1077,8 +942,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>0.0</v>
+      <c r="A107" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1087,8 +952,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>0.0</v>
+      <c r="A109" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1097,36 +962,36 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>0.0</v>
+      <c r="A111" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>0.0</v>
       </c>
+      <c r="B112" t="n">
+        <v>5219.0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="n">
+        <v>681.02001953125</v>
+      </c>
+      <c r="F112" t="n">
+        <v>568.3900146484375</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2794.050048828125</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B113" t="n">
-        <v>9313.0</v>
-      </c>
-      <c r="C113" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" t="s">
-        <v>39</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1132.4200439453125</v>
-      </c>
-      <c r="F113" t="n">
-        <v>612.6400146484375</v>
-      </c>
-      <c r="G113" t="n">
-        <v>4445.830078125</v>
+      <c r="A113" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1135,8 +1000,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>0.0</v>
+      <c r="A115" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1145,8 +1010,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>0.0</v>
+      <c r="A117" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1155,8 +1020,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>0.0</v>
+      <c r="A119" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1165,26 +1030,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4568.0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>40</v>
-      </c>
-      <c r="D121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E121" t="n">
-        <v>667.4199829101562</v>
-      </c>
-      <c r="F121" t="n">
-        <v>247.99000549316406</v>
-      </c>
-      <c r="G121" t="n">
-        <v>3781.260009765625</v>
+      <c r="A121" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1193,8 +1040,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>0.0</v>
+      <c r="A123" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1203,8 +1050,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>0.0</v>
+      <c r="A125" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1213,36 +1060,36 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>0.0</v>
+      <c r="A127" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>0.0</v>
       </c>
+      <c r="B128" t="n">
+        <v>9051.0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" t="n">
+        <v>899.27001953125</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4535.47021484375</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>3394.0</v>
-      </c>
-      <c r="C129" t="s">
-        <v>42</v>
-      </c>
-      <c r="D129" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" t="n">
-        <v>181.6300048828125</v>
-      </c>
-      <c r="F129" t="n">
-        <v>350.0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1911.8399658203125</v>
+      <c r="A129" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1251,8 +1098,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>0.0</v>
+      <c r="A131" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1261,8 +1108,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>0.0</v>
+      <c r="A133" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1271,8 +1118,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>0.0</v>
+      <c r="A135" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1281,26 +1128,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4052.0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>44</v>
-      </c>
-      <c r="D137" t="s">
-        <v>45</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G137" t="n">
-        <v>72373.828125</v>
+      <c r="A137" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1309,8 +1138,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>0.0</v>
+      <c r="A139" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1319,8 +1148,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>0.0</v>
+      <c r="A141" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1329,36 +1158,36 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>0.0</v>
+      <c r="A143" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
         <v>0.0</v>
       </c>
+      <c r="B144" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B145" t="n">
-        <v>8622.0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>46</v>
-      </c>
-      <c r="D145" t="s">
-        <v>47</v>
-      </c>
-      <c r="E145" t="n">
-        <v>713.3800048828125</v>
-      </c>
-      <c r="F145" t="n">
-        <v>574.0</v>
-      </c>
-      <c r="G145" t="n">
-        <v>3723.449951171875</v>
+      <c r="A145" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1367,8 +1196,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>0.0</v>
+      <c r="A147" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1377,8 +1206,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>0.0</v>
+      <c r="A149" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1387,8 +1216,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>0.0</v>
+      <c r="A151" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1397,26 +1226,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B153" t="n">
-        <v>3216.0</v>
-      </c>
-      <c r="C153" t="s">
-        <v>48</v>
-      </c>
-      <c r="D153" t="s">
-        <v>49</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F153" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.0</v>
+      <c r="A153" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1425,8 +1236,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>0.0</v>
+      <c r="A155" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1435,8 +1246,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>0.0</v>
+      <c r="A157" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -1445,36 +1256,36 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>0.0</v>
+      <c r="A159" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
         <v>0.0</v>
       </c>
+      <c r="B160" t="n">
+        <v>8706.0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1657.31005859375</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>7911.580078125</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B161" t="n">
-        <v>6077.0</v>
-      </c>
-      <c r="C161" t="s">
-        <v>50</v>
-      </c>
-      <c r="D161" t="s">
-        <v>51</v>
-      </c>
-      <c r="E161" t="n">
-        <v>548.7999877929688</v>
-      </c>
-      <c r="F161" t="n">
-        <v>422.0199890136719</v>
-      </c>
-      <c r="G161" t="n">
-        <v>3136.860107421875</v>
+      <c r="A161" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -1483,8 +1294,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>0.0</v>
+      <c r="A163" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -1493,8 +1304,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>0.0</v>
+      <c r="A165" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -1503,8 +1314,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>0.0</v>
+      <c r="A167" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -1513,26 +1324,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1348.0</v>
-      </c>
-      <c r="C169" t="s">
-        <v>52</v>
-      </c>
-      <c r="D169" t="s">
-        <v>53</v>
-      </c>
-      <c r="E169" t="n">
-        <v>809.8300170898438</v>
-      </c>
-      <c r="F169" t="n">
-        <v>341.9800109863281</v>
-      </c>
-      <c r="G169" t="n">
-        <v>4334.0400390625</v>
+      <c r="A169" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -1541,8 +1334,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>0.0</v>
+      <c r="A171" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -1551,8 +1344,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>0.0</v>
+      <c r="A173" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -1561,36 +1354,36 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>0.0</v>
+      <c r="A175" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
         <v>0.0</v>
       </c>
+      <c r="B176" t="n">
+        <v>2598.0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" t="s">
+        <v>33</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B177" t="n">
-        <v>3487.0</v>
-      </c>
-      <c r="C177" t="s">
-        <v>54</v>
-      </c>
-      <c r="D177" t="s">
-        <v>55</v>
-      </c>
-      <c r="E177" t="n">
-        <v>615.3400268554688</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G177" t="n">
-        <v>1422.9599609375</v>
+      <c r="A177" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -1599,8 +1392,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>0.0</v>
+      <c r="A179" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -1609,8 +1402,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>0.0</v>
+      <c r="A181" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -1619,8 +1412,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>0.0</v>
+      <c r="A183" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -1629,26 +1422,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B185" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="C185" t="s">
-        <v>32</v>
-      </c>
-      <c r="D185" t="s">
-        <v>56</v>
-      </c>
-      <c r="E185" t="n">
-        <v>430.0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G185" t="n">
-        <v>6085.0</v>
+      <c r="A185" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -1657,8 +1432,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>0.0</v>
+      <c r="A187" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -1667,8 +1442,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>0.0</v>
+      <c r="A189" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -1677,36 +1452,36 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>0.0</v>
+      <c r="A191" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
         <v>0.0</v>
       </c>
+      <c r="B192" t="n">
+        <v>5934.0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" t="s">
+        <v>35</v>
+      </c>
+      <c r="E192" t="n">
+        <v>528.989990234375</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>3135.239990234375</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B193" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="C193" t="s">
-        <v>32</v>
-      </c>
-      <c r="D193" t="s">
-        <v>57</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2232.840087890625</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>15643.4501953125</v>
+      <c r="A193" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -1715,8 +1490,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>0.0</v>
+      <c r="A195" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -1725,8 +1500,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>0.0</v>
+      <c r="A197" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -1735,8 +1510,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>0.0</v>
+      <c r="A199" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -1745,26 +1520,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B201" t="n">
-        <v>8673.0</v>
-      </c>
-      <c r="C201" t="s">
-        <v>58</v>
-      </c>
-      <c r="D201" t="s">
-        <v>59</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1826.239990234375</v>
-      </c>
-      <c r="F201" t="n">
-        <v>997.0</v>
-      </c>
-      <c r="G201" t="n">
-        <v>9882.009765625</v>
+      <c r="A201" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -1773,8 +1530,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>0.0</v>
+      <c r="A203" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -1783,8 +1540,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>0.0</v>
+      <c r="A205" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -1793,36 +1550,36 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>0.0</v>
+      <c r="A207" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
         <v>0.0</v>
       </c>
+      <c r="B208" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>36</v>
+      </c>
+      <c r="D208" t="s">
+        <v>37</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1071.3399658203125</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>12064.849609375</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1571.0</v>
-      </c>
-      <c r="C209" t="s">
-        <v>60</v>
-      </c>
-      <c r="D209" t="s">
-        <v>61</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.0</v>
+      <c r="A209" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -1831,8 +1588,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>0.0</v>
+      <c r="A211" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -1841,8 +1598,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>0.0</v>
+      <c r="A213" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -1851,8 +1608,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>0.0</v>
+      <c r="A215" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -1861,26 +1618,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5233.0</v>
-      </c>
-      <c r="C217" t="s">
-        <v>62</v>
-      </c>
-      <c r="D217" t="s">
-        <v>63</v>
-      </c>
-      <c r="E217" t="n">
-        <v>1737.219970703125</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G217" t="n">
-        <v>7637.75</v>
+      <c r="A217" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -1889,8 +1628,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>0.0</v>
+      <c r="A219" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -1899,8 +1638,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>0.0</v>
+      <c r="A221" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -1909,36 +1648,36 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
-        <v>0.0</v>
+      <c r="A223" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
         <v>0.0</v>
       </c>
+      <c r="B224" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>38</v>
+      </c>
+      <c r="D224" t="s">
+        <v>37</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1603.9599609375</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>9140.240234375</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1181.0</v>
-      </c>
-      <c r="C225" t="s">
-        <v>64</v>
-      </c>
-      <c r="D225" t="s">
-        <v>65</v>
-      </c>
-      <c r="E225" t="n">
-        <v>473.8999938964844</v>
-      </c>
-      <c r="F225" t="n">
-        <v>291.54998779296875</v>
-      </c>
-      <c r="G225" t="n">
-        <v>2720.280029296875</v>
+      <c r="A225" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -1947,8 +1686,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
-        <v>0.0</v>
+      <c r="A227" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -1957,8 +1696,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>0.0</v>
+      <c r="A229" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -1967,8 +1706,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
-        <v>0.0</v>
+      <c r="A231" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -1977,26 +1716,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B233" t="n">
-        <v>996.0</v>
-      </c>
-      <c r="C233" t="s">
-        <v>66</v>
-      </c>
-      <c r="D233" t="s">
-        <v>67</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.0</v>
+      <c r="A233" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2005,8 +1726,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>0.0</v>
+      <c r="A235" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2015,8 +1736,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>0.0</v>
+      <c r="A237" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2025,36 +1746,36 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>0.0</v>
+      <c r="A239" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
         <v>0.0</v>
       </c>
+      <c r="B240" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>39</v>
+      </c>
+      <c r="D240" t="s">
+        <v>37</v>
+      </c>
+      <c r="E240" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>2835.0</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B241" t="n">
-        <v>868.0</v>
-      </c>
-      <c r="C241" t="s">
-        <v>68</v>
-      </c>
-      <c r="D241" t="s">
-        <v>69</v>
-      </c>
-      <c r="E241" t="n">
-        <v>1037.3299560546875</v>
-      </c>
-      <c r="F241" t="n">
-        <v>467.0</v>
-      </c>
-      <c r="G241" t="n">
-        <v>6112.4599609375</v>
+      <c r="A241" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2063,8 +1784,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>0.0</v>
+      <c r="A243" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2073,8 +1794,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
-        <v>0.0</v>
+      <c r="A245" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2083,8 +1804,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>0.0</v>
+      <c r="A247" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2093,26 +1814,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B249" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="C249" t="s">
-        <v>70</v>
-      </c>
-      <c r="D249" t="s">
-        <v>71</v>
-      </c>
-      <c r="E249" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F249" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G249" t="n">
-        <v>1600.0</v>
+      <c r="A249" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2121,8 +1824,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
-        <v>0.0</v>
+      <c r="A251" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2131,49 +1834,46 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
-        <v>0.0</v>
+      <c r="A253" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
         <v>0.0</v>
       </c>
-      <c r="D254" t="s">
-        <v>72</v>
-      </c>
-      <c r="E254" t="s">
-        <v>72</v>
-      </c>
-      <c r="F254" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
-        <v>0.0</v>
+      <c r="A255" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
         <v>0.0</v>
       </c>
-      <c r="B256" t="s">
-        <v>73</v>
+      <c r="B256" t="n">
+        <v>3117.0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>40</v>
+      </c>
+      <c r="D256" t="s">
+        <v>41</v>
+      </c>
+      <c r="E256" t="n">
+        <v>300.57000732421875</v>
+      </c>
+      <c r="F256" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1585.6600341796875</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D257" t="n">
-        <v>22168.439453125</v>
-      </c>
-      <c r="E257" t="n">
-        <v>7938.56982421875</v>
-      </c>
-      <c r="F257" t="n">
-        <v>283728.0625</v>
+      <c r="A257" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -2182,11 +1882,1396 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B259" t="s">
-        <v>74</v>
+      <c r="A259" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B272" t="n">
+        <v>9313.0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>42</v>
+      </c>
+      <c r="D272" t="s">
+        <v>43</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1552.3900146484375</v>
+      </c>
+      <c r="F272" t="n">
+        <v>910.5</v>
+      </c>
+      <c r="G272" t="n">
+        <v>7969.06005859375</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4568.0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>44</v>
+      </c>
+      <c r="D288" t="s">
+        <v>45</v>
+      </c>
+      <c r="E288" t="n">
+        <v>833.4500122070312</v>
+      </c>
+      <c r="F288" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G288" t="n">
+        <v>3935.6201171875</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B304" t="n">
+        <v>3394.0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>46</v>
+      </c>
+      <c r="D304" t="s">
+        <v>47</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1095.9100341796875</v>
+      </c>
+      <c r="F304" t="n">
+        <v>773.0499877929688</v>
+      </c>
+      <c r="G304" t="n">
+        <v>5368.5400390625</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B320" t="n">
+        <v>4052.0</v>
+      </c>
+      <c r="C320" t="s">
+        <v>48</v>
+      </c>
+      <c r="D320" t="s">
+        <v>49</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G320" t="n">
+        <v>38600.671875</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B336" t="n">
+        <v>8622.0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>50</v>
+      </c>
+      <c r="D336" t="s">
+        <v>51</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1204.489990234375</v>
+      </c>
+      <c r="F336" t="n">
+        <v>967.0</v>
+      </c>
+      <c r="G336" t="n">
+        <v>5211.47021484375</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3216.0</v>
+      </c>
+      <c r="C352" t="s">
+        <v>52</v>
+      </c>
+      <c r="D352" t="s">
+        <v>53</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1348.0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>54</v>
+      </c>
+      <c r="D368" t="s">
+        <v>55</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1481.199951171875</v>
+      </c>
+      <c r="F368" t="n">
+        <v>761.6599731445312</v>
+      </c>
+      <c r="G368" t="n">
+        <v>6474.02978515625</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B384" t="n">
+        <v>3487.0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>56</v>
+      </c>
+      <c r="D384" t="s">
+        <v>57</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B400" t="n">
+        <v>8673.0</v>
+      </c>
+      <c r="C400" t="s">
+        <v>58</v>
+      </c>
+      <c r="D400" t="s">
+        <v>59</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1638.4599609375</v>
+      </c>
+      <c r="F400" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>7681.31982421875</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B416" t="n">
+        <v>5233.0</v>
+      </c>
+      <c r="C416" t="s">
+        <v>60</v>
+      </c>
+      <c r="D416" t="s">
+        <v>61</v>
+      </c>
+      <c r="E416" t="n">
+        <v>743.4400024414062</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G416" t="n">
+        <v>3214.389892578125</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B432" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="C432" t="s">
+        <v>62</v>
+      </c>
+      <c r="D432" t="s">
+        <v>63</v>
+      </c>
+      <c r="E432" t="n">
+        <v>845.5399780273438</v>
+      </c>
+      <c r="F432" t="n">
+        <v>503.20001220703125</v>
+      </c>
+      <c r="G432" t="n">
+        <v>4232.919921875</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B448" t="n">
+        <v>2279.0</v>
+      </c>
+      <c r="C448" t="s">
+        <v>64</v>
+      </c>
+      <c r="D448" t="s">
+        <v>65</v>
+      </c>
+      <c r="E448" t="n">
+        <v>485.1300048828125</v>
+      </c>
+      <c r="F448" t="n">
+        <v>314.6199951171875</v>
+      </c>
+      <c r="G448" t="n">
+        <v>2353.330078125</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B464" t="n">
+        <v>868.0</v>
+      </c>
+      <c r="C464" t="s">
+        <v>66</v>
+      </c>
+      <c r="D464" t="s">
+        <v>67</v>
+      </c>
+      <c r="E464" t="n">
+        <v>1014.02001953125</v>
+      </c>
+      <c r="F464" t="n">
+        <v>601.0</v>
+      </c>
+      <c r="G464" t="n">
+        <v>5247.56005859375</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D474" t="s">
+        <v>68</v>
+      </c>
+      <c r="E474" t="s">
+        <v>68</v>
+      </c>
+      <c r="F474" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B478" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D480" t="n">
+        <v>21035.580078125</v>
+      </c>
+      <c r="E480" t="n">
+        <v>9786.009765625</v>
+      </c>
+      <c r="F480" t="n">
+        <v>231610.40625</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B484" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
